--- a/projects/pso/experience.xlsx
+++ b/projects/pso/experience.xlsx
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>This Level</t>
@@ -447,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>50</v>
@@ -458,7 +463,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>200</v>
@@ -469,7 +474,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>450</v>
@@ -480,7 +485,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>800</v>
@@ -491,7 +496,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>1250</v>
@@ -502,7 +507,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="n">
         <v>1800</v>
@@ -513,7 +518,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
         <v>2450</v>
@@ -524,7 +529,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="n">
         <v>3200</v>
@@ -535,7 +540,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="n">
         <v>4050</v>
@@ -546,7 +551,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="n">
         <v>5000</v>
@@ -557,7 +562,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="n">
         <v>6050</v>
@@ -568,7 +573,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="n">
         <v>7200</v>
@@ -579,7 +584,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="n">
         <v>8450</v>
@@ -590,7 +595,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="n">
         <v>9848</v>
@@ -601,7 +606,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="n">
         <v>11427</v>
@@ -612,7 +617,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="n">
         <v>13252</v>
@@ -623,7 +628,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n">
         <v>15364</v>
@@ -634,7 +639,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="n">
         <v>17785</v>
@@ -645,7 +650,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="n">
         <v>20539</v>
@@ -656,7 +661,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="n">
         <v>23644</v>
@@ -667,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="n">
         <v>27118</v>
@@ -678,7 +683,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="n">
         <v>30979</v>
@@ -689,7 +694,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="n">
         <v>35245</v>
@@ -700,7 +705,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="n">
         <v>39924</v>
@@ -711,7 +716,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="n">
         <v>45022</v>
@@ -722,7 +727,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="n">
         <v>50548</v>
@@ -733,7 +738,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="n">
         <v>56515</v>
@@ -744,7 +749,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="n">
         <v>62935</v>
@@ -755,7 +760,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="n">
         <v>69816</v>
@@ -766,7 +771,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="n">
         <v>77165</v>
@@ -777,7 +782,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="n">
         <v>84993</v>
@@ -788,7 +793,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="n">
         <v>93309</v>
@@ -799,7 +804,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="n">
         <v>102126</v>
@@ -810,7 +815,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="n">
         <v>111455</v>
@@ -821,7 +826,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="n">
         <v>121310</v>
@@ -832,7 +837,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="n">
         <v>131698</v>
@@ -843,7 +848,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="n">
         <v>142625</v>
@@ -854,7 +859,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="n">
         <v>154103</v>
@@ -865,7 +870,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="n">
         <v>166145</v>
@@ -876,7 +881,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="n">
         <v>178762</v>
@@ -887,7 +892,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="n">
         <v>191962</v>
@@ -898,7 +903,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="n">
         <v>205756</v>
@@ -909,7 +914,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="n">
         <v>220153</v>
@@ -920,7 +925,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="n">
         <v>235166</v>
@@ -931,7 +936,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="n">
         <v>250807</v>
@@ -942,7 +947,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="n">
         <v>267086</v>
@@ -953,7 +958,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="n">
         <v>284012</v>
@@ -964,7 +969,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="n">
         <v>301595</v>
@@ -975,7 +980,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="n">
         <v>319847</v>
@@ -986,7 +991,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="n">
         <v>338779</v>
@@ -997,7 +1002,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="n">
         <v>358404</v>
@@ -1008,7 +1013,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" t="n">
         <v>378730</v>
@@ -1019,7 +1024,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="n">
         <v>399766</v>
@@ -1030,7 +1035,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="n">
         <v>421524</v>
@@ -1041,7 +1046,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="n">
         <v>444016</v>
@@ -1052,7 +1057,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="n">
         <v>467249</v>
@@ -1063,7 +1068,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="n">
         <v>491238</v>
@@ -1074,7 +1079,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="n">
         <v>515991</v>
@@ -1085,7 +1090,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="n">
         <v>541513</v>
@@ -1096,7 +1101,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" t="n">
         <v>567815</v>
@@ -1107,7 +1112,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" t="n">
         <v>594908</v>
@@ -1118,7 +1123,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" t="n">
         <v>622800</v>
@@ -1129,7 +1134,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" t="n">
         <v>651502</v>
@@ -1140,7 +1145,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" t="n">
         <v>681023</v>
@@ -1151,7 +1156,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" t="n">
         <v>711375</v>
@@ -1162,7 +1167,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="n">
         <v>742566</v>
@@ -1173,7 +1178,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="n">
         <v>774604</v>
@@ -1184,7 +1189,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="n">
         <v>807502</v>
@@ -1195,7 +1200,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="n">
         <v>841271</v>
@@ -1206,7 +1211,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" t="n">
         <v>875920</v>
@@ -1217,7 +1222,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" t="n">
         <v>911460</v>
@@ -1228,7 +1233,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" t="n">
         <v>947904</v>
@@ -1239,7 +1244,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" t="n">
         <v>985259</v>
@@ -1250,7 +1255,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" t="n">
         <v>1023533</v>
@@ -1261,7 +1266,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" t="n">
         <v>1062737</v>
@@ -1272,7 +1277,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" t="n">
         <v>1102882</v>
@@ -1283,7 +1288,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" t="n">
         <v>1143980</v>
@@ -1294,7 +1299,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" t="n">
         <v>1186040</v>
@@ -1305,7 +1310,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" t="n">
         <v>1229071</v>
@@ -1316,7 +1321,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" t="n">
         <v>1273081</v>
@@ -1327,7 +1332,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" t="n">
         <v>1318092</v>
@@ -1338,7 +1343,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" t="n">
         <v>1364125</v>
@@ -1349,7 +1354,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" t="n">
         <v>1411201</v>
@@ -1360,7 +1365,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" t="n">
         <v>1459348</v>
@@ -1371,7 +1376,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" t="n">
         <v>1508599</v>
@@ -1382,7 +1387,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" t="n">
         <v>1558983</v>
@@ -1393,7 +1398,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" t="n">
         <v>1610536</v>
@@ -1404,7 +1409,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" t="n">
         <v>1663300</v>
@@ -1415,7 +1420,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" t="n">
         <v>1717321</v>
@@ -1426,7 +1431,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" t="n">
         <v>1772647</v>
@@ -1437,7 +1442,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" t="n">
         <v>1829330</v>
@@ -1448,7 +1453,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" t="n">
         <v>1887428</v>
@@ -1459,7 +1464,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" t="n">
         <v>1947004</v>
@@ -1470,7 +1475,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" t="n">
         <v>2008126</v>
@@ -1481,7 +1486,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" t="n">
         <v>2070867</v>
@@ -1492,7 +1497,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" t="n">
         <v>2135310</v>
@@ -1503,7 +1508,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" t="n">
         <v>2201539</v>
@@ -1514,7 +1519,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" t="n">
         <v>2269648</v>
@@ -1525,7 +1530,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" t="n">
         <v>2339735</v>
@@ -1536,7 +1541,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" t="n">
         <v>2411903</v>
@@ -1547,7 +1552,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" t="n">
         <v>2488164</v>
@@ -1558,7 +1563,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103" t="n">
         <v>2568714</v>
@@ -1569,7 +1574,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" t="n">
         <v>2653755</v>
@@ -1580,7 +1585,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" t="n">
         <v>2743485</v>
@@ -1591,7 +1596,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" t="n">
         <v>2838105</v>
@@ -1602,7 +1607,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" t="n">
         <v>2937820</v>
@@ -1613,7 +1618,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" t="n">
         <v>3042926</v>
@@ -1624,7 +1629,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" t="n">
         <v>3153725</v>
@@ -1635,7 +1640,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" t="n">
         <v>3270523</v>
@@ -1646,7 +1651,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" t="n">
         <v>3393621</v>
@@ -1657,7 +1662,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" t="n">
         <v>3523317</v>
@@ -1668,7 +1673,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" t="n">
         <v>3659910</v>
@@ -1679,7 +1684,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" t="n">
         <v>3803697</v>
@@ -1690,7 +1695,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" t="n">
         <v>3954983</v>
@@ -1701,7 +1706,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116" t="n">
         <v>4114067</v>
@@ -1712,7 +1717,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117" t="n">
         <v>4281251</v>
@@ -1723,7 +1728,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118" t="n">
         <v>4456936</v>
@@ -1734,7 +1739,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" t="n">
         <v>4641520</v>
@@ -1745,7 +1750,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" t="n">
         <v>4835405</v>
@@ -1756,7 +1761,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121" t="n">
         <v>5038992</v>
@@ -1767,7 +1772,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122" t="n">
         <v>5252677</v>
@@ -1778,7 +1783,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123" t="n">
         <v>5476560</v>
@@ -1789,7 +1794,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124" t="n">
         <v>5710739</v>
@@ -1800,7 +1805,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125" t="n">
         <v>5955316</v>
@@ -1811,7 +1816,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126" t="n">
         <v>6210392</v>
@@ -1822,7 +1827,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127" t="n">
         <v>6476064</v>
@@ -1833,7 +1838,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128" t="n">
         <v>6752432</v>
@@ -1844,7 +1849,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129" t="n">
         <v>7039597</v>
@@ -1855,7 +1860,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130" t="n">
         <v>7337658</v>
@@ -1866,7 +1871,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" t="n">
         <v>7646717</v>
@@ -1877,7 +1882,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" t="n">
         <v>7966876</v>
@@ -1888,7 +1893,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133" t="n">
         <v>8298232</v>
@@ -1899,7 +1904,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134" t="n">
         <v>8640881</v>
@@ -1910,7 +1915,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135" t="n">
         <v>8994927</v>
@@ -1921,7 +1926,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136" t="n">
         <v>9360472</v>
@@ -1932,7 +1937,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137" t="n">
         <v>9737616</v>
@@ -1943,7 +1948,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138" t="n">
         <v>10126458</v>
@@ -1954,7 +1959,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139" t="n">
         <v>10527095</v>
@@ -1965,7 +1970,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140" t="n">
         <v>10939630</v>
@@ -1976,7 +1981,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141" t="n">
         <v>11364163</v>
@@ -1987,7 +1992,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142" t="n">
         <v>11800795</v>
@@ -1998,7 +2003,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143" t="n">
         <v>12249627</v>
@@ -2009,7 +2014,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144" t="n">
         <v>12710761</v>
@@ -2020,7 +2025,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145" t="n">
         <v>13184299</v>
@@ -2031,7 +2036,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146" t="n">
         <v>13670344</v>
@@ -2042,7 +2047,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147" t="n">
         <v>14168994</v>
@@ -2053,7 +2058,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148" t="n">
         <v>14680346</v>
@@ -2064,7 +2069,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149" t="n">
         <v>15204498</v>
@@ -2075,7 +2080,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150" t="n">
         <v>15741551</v>
@@ -2086,7 +2091,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151" t="n">
         <v>16291604</v>
@@ -2097,7 +2102,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152" t="n">
         <v>16854759</v>
@@ -2108,7 +2113,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153" t="n">
         <v>17431119</v>
@@ -2119,7 +2124,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154" t="n">
         <v>18020783</v>
@@ -2130,7 +2135,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155" t="n">
         <v>18623854</v>
@@ -2141,7 +2146,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156" t="n">
         <v>19240432</v>
@@ -2152,7 +2157,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157" t="n">
         <v>19870618</v>
@@ -2163,7 +2168,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158" t="n">
         <v>20514614</v>
@@ -2174,7 +2179,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159" t="n">
         <v>21172626</v>
@@ -2185,7 +2190,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160" t="n">
         <v>21844850</v>
@@ -2196,7 +2201,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161" t="n">
         <v>22531485</v>
@@ -2207,7 +2212,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162" t="n">
         <v>23232732</v>
@@ -2218,7 +2223,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163" t="n">
         <v>23948794</v>
@@ -2229,7 +2234,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164" t="n">
         <v>24679868</v>
@@ -2240,7 +2245,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165" t="n">
         <v>25426153</v>
@@ -2251,7 +2256,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166" t="n">
         <v>26187854</v>
@@ -2262,7 +2267,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167" t="n">
         <v>26965277</v>
@@ -2273,7 +2278,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168" t="n">
         <v>27758726</v>
@@ -2284,7 +2289,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B169" t="n">
         <v>28568599</v>
@@ -2295,7 +2300,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B170" t="n">
         <v>29395299</v>
@@ -2306,7 +2311,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171" t="n">
         <v>30239347</v>
@@ -2317,7 +2322,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172" t="n">
         <v>31101333</v>
@@ -2328,7 +2333,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B173" t="n">
         <v>31981946</v>
@@ -2339,7 +2344,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174" t="n">
         <v>32881910</v>
@@ -2350,7 +2355,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175" t="n">
         <v>33802211</v>
@@ -2361,7 +2366,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176" t="n">
         <v>34743869</v>
@@ -2372,7 +2377,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" t="n">
         <v>35708107</v>
@@ -2383,7 +2388,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178" t="n">
         <v>36696348</v>
@@ -2394,7 +2399,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" t="n">
         <v>37710175</v>
@@ -2405,7 +2410,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" t="n">
         <v>38751371</v>
@@ -2416,7 +2421,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" t="n">
         <v>39821758</v>
@@ -2427,7 +2432,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" t="n">
         <v>40925323</v>
@@ -2438,7 +2443,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183" t="n">
         <v>42068048</v>
@@ -2449,7 +2454,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" t="n">
         <v>43257823</v>
@@ -2460,7 +2465,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B185" t="n">
         <v>44504634</v>
@@ -2471,7 +2476,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B186" t="n">
         <v>45820378</v>
@@ -2482,7 +2487,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187" t="n">
         <v>47219013</v>
@@ -2493,7 +2498,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B188" t="n">
         <v>48716731</v>
@@ -2504,7 +2509,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" t="n">
         <v>50331355</v>
@@ -2515,7 +2520,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190" t="n">
         <v>52082887</v>
@@ -2526,7 +2531,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191" t="n">
         <v>53992896</v>
@@ -2537,7 +2542,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192" t="n">
         <v>56085071</v>
@@ -2548,7 +2553,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B193" t="n">
         <v>58386099</v>
@@ -2559,7 +2564,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B194" t="n">
         <v>60923945</v>
@@ -2570,7 +2575,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195" t="n">
         <v>63728621</v>
@@ -2581,7 +2586,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" t="n">
         <v>66837114</v>
@@ -2592,7 +2597,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" t="n">
         <v>70289303</v>
@@ -2603,7 +2608,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B198" t="n">
         <v>74132060</v>
@@ -2614,7 +2619,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B199" t="n">
         <v>78415384</v>
@@ -2625,7 +2630,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200" t="n">
         <v>83227800</v>
